--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_21_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_21_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>481089.6332646931</v>
+        <v>572993.6190112255</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8088944.869226764</v>
+        <v>8547013.059513934</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8722880.896883905</v>
+        <v>8506890.903312847</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166639</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>88.09081815943041</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
     </row>
     <row r="3">
@@ -735,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>97.28386093292936</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -795,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>165.1725371760943</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663202</v>
       </c>
     </row>
     <row r="4">
@@ -838,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.00402729331151</v>
+        <v>38.11163636040619</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402859</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709393</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -896,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>39.70122005611984</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="F5" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="G5" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="H5" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -975,28 +977,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>26.24936501162748</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.40229248514497</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1075,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>38.1116363604059</v>
+        <v>52.21594625443465</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>39.70122005612006</v>
       </c>
       <c r="V8" t="n">
-        <v>56.87662676879118</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>86.98603117431411</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>139.3249150964258</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1312,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>38.11163636040617</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>166.8904069722265</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>201.6622187863195</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>65.33825739391212</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
         <v>18.81721868247742</v>
@@ -1607,22 +1609,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>145.2481701217147</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>43.83162758969758</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1752,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1768,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>146.8428862394539</v>
+        <v>57.91073356940661</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>308.9203564757131</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>15.33854647026065</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>131.3972404049041</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>61.36917500887013</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2084,16 +2086,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>145.2481701217147</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>56.22992883261801</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2169,7 +2171,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>134.9994691657081</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>58.28185552386306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>76.28380354614035</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
@@ -2375,16 +2377,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>23.79925355567503</v>
+        <v>203.1002079700023</v>
       </c>
     </row>
     <row r="24">
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -2524,13 +2526,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>130.2167949627379</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>32.64393945254978</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,25 +2557,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>99.59933623926747</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>256.7273523546845</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>195.2768636342814</v>
       </c>
       <c r="V28" t="n">
-        <v>61.36917500887014</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2795,19 +2797,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>57.92518451681195</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>98.9413629250212</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>87.62154955555303</v>
       </c>
       <c r="V31" t="n">
-        <v>61.36917500887014</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.6455999594027</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3035,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>356.6860874057544</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3086,16 +3088,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3241,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>81.46084344268475</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>188.1518615973384</v>
       </c>
     </row>
     <row r="35">
@@ -3272,16 +3274,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>65.06906572523788</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>39.32117841962486</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>82.11246327371909</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>77.73119991066024</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,16 +3511,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>271.7754114124711</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>200.8052136229455</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>87.93270968653111</v>
       </c>
       <c r="T40" t="n">
-        <v>20.95866062610916</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3721,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3749,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>271.7754114124706</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>28.95911863073197</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3901,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>30.21666592876849</v>
       </c>
       <c r="H43" t="n">
-        <v>12.80633068795264</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>94.43707156498476</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3986,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>229.796569204138</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4141,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>212.0483916414921</v>
+        <v>221.7048515690715</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.00204697330557</v>
+        <v>181.8429936158256</v>
       </c>
       <c r="C2" t="n">
-        <v>15.00204697330557</v>
+        <v>181.8429936158256</v>
       </c>
       <c r="D2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678504</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058964</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.121819064476</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123825</v>
+        <v>509.4952041123835</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985575</v>
+        <v>649.4845259985591</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020256</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262241</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S2" t="n">
-        <v>583.2614020227591</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="T2" t="n">
-        <v>393.8416170062745</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="U2" t="n">
-        <v>204.4218319897901</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="V2" t="n">
-        <v>15.00204697330557</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="W2" t="n">
-        <v>15.00204697330557</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="X2" t="n">
-        <v>15.00204697330557</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.00204697330557</v>
+        <v>181.8429936158256</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330557</v>
+        <v>319.302685589876</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330557</v>
+        <v>319.302685589876</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330557</v>
+        <v>221.0361593949979</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330557</v>
+        <v>221.0361593949979</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330557</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330557</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330557</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024202</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772646</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.769091114024</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546593</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.210157847634</v>
+        <v>649.2101578476359</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017052</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652786</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652786</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652786</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652786</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="V3" t="n">
-        <v>583.2614020227591</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="W3" t="n">
-        <v>393.8416170062745</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4218319897901</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330557</v>
+        <v>487.5180226099441</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.45491281910365</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="C4" t="n">
-        <v>49.45491281910365</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="D4" t="n">
-        <v>49.45491281910365</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="E4" t="n">
-        <v>49.45491281910365</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="F4" t="n">
-        <v>49.45491281910365</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="G4" t="n">
-        <v>49.45491281910365</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="H4" t="n">
-        <v>49.45491281910365</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="I4" t="n">
-        <v>49.45491281910365</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404152</v>
+        <v>29.24882464404145</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230162</v>
+        <v>27.03967056230184</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170694</v>
+        <v>42.98993985170731</v>
       </c>
       <c r="N4" t="n">
-        <v>66.418473293963</v>
+        <v>66.41847329396354</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910365</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910365</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="R4" t="n">
-        <v>49.45491281910365</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="S4" t="n">
-        <v>49.45491281910365</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="T4" t="n">
-        <v>49.45491281910365</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="U4" t="n">
-        <v>49.45491281910365</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="V4" t="n">
-        <v>49.45491281910365</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="W4" t="n">
-        <v>49.45491281910365</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="X4" t="n">
-        <v>49.45491281910365</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="Y4" t="n">
-        <v>49.45491281910365</v>
+        <v>67.74542702829012</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="C5" t="n">
-        <v>710.0001061843507</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="D5" t="n">
-        <v>710.0001061843507</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="E5" t="n">
-        <v>710.0001061843507</v>
+        <v>583.2614020227605</v>
       </c>
       <c r="F5" t="n">
-        <v>520.5803211678658</v>
+        <v>393.8416170062756</v>
       </c>
       <c r="G5" t="n">
-        <v>331.1605361513811</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="H5" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I5" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="T5" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="U5" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="V5" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="W5" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="X5" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="Y5" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652805</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.0020469733056</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="C6" t="n">
-        <v>15.0020469733056</v>
+        <v>502.4847783453018</v>
       </c>
       <c r="D6" t="n">
-        <v>15.0020469733056</v>
+        <v>502.4847783453018</v>
       </c>
       <c r="E6" t="n">
-        <v>15.0020469733056</v>
+        <v>475.9702682325468</v>
       </c>
       <c r="F6" t="n">
-        <v>15.0020469733056</v>
+        <v>329.4357102594317</v>
       </c>
       <c r="G6" t="n">
-        <v>15.0020469733056</v>
+        <v>191.8965290818809</v>
       </c>
       <c r="H6" t="n">
-        <v>15.0020469733056</v>
+        <v>90.03616812153776</v>
       </c>
       <c r="I6" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="J6" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024242</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L6" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476351</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R6" t="n">
-        <v>734.5444774681637</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="S6" t="n">
-        <v>583.26140202276</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="T6" t="n">
-        <v>393.8416170062752</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="U6" t="n">
-        <v>204.4218319897904</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="V6" t="n">
-        <v>15.0020469733056</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="W6" t="n">
-        <v>15.0020469733056</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="X6" t="n">
-        <v>15.0020469733056</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.0020469733056</v>
+        <v>676.9378076264288</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="C7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="D7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="E7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="F7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="G7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="H7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="I7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="J7" t="n">
-        <v>29.24882464404147</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="V7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="W7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="X7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1335.127537179187</v>
+        <v>710.0001061843514</v>
       </c>
       <c r="C8" t="n">
-        <v>1335.127537179187</v>
+        <v>520.5803211678663</v>
       </c>
       <c r="D8" t="n">
-        <v>1335.127537179187</v>
+        <v>520.5803211678663</v>
       </c>
       <c r="E8" t="n">
-        <v>949.3392845809428</v>
+        <v>331.1605361513813</v>
       </c>
       <c r="F8" t="n">
-        <v>538.3533797913353</v>
+        <v>331.1605361513813</v>
       </c>
       <c r="G8" t="n">
-        <v>122.3223344947425</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>21.03371160678505</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>80.81213159058966</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711869</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>649.484525998559</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>734.4611726020274</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652807</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652807</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>750.1023486652807</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642784</v>
+        <v>750.1023486652807</v>
       </c>
       <c r="U8" t="n">
-        <v>1782.718007305293</v>
+        <v>710.0001061843514</v>
       </c>
       <c r="V8" t="n">
-        <v>1725.266869154999</v>
+        <v>710.0001061843514</v>
       </c>
       <c r="W8" t="n">
-        <v>1725.266869154999</v>
+        <v>710.0001061843514</v>
       </c>
       <c r="X8" t="n">
-        <v>1725.266869154999</v>
+        <v>710.0001061843514</v>
       </c>
       <c r="Y8" t="n">
-        <v>1335.127537179187</v>
+        <v>710.0001061843514</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>131.2338744919457</v>
+        <v>609.3701111941432</v>
       </c>
       <c r="C9" t="n">
-        <v>43.36919653809306</v>
+        <v>609.3701111941432</v>
       </c>
       <c r="D9" t="n">
-        <v>43.36919653809306</v>
+        <v>460.4357015328919</v>
       </c>
       <c r="E9" t="n">
-        <v>43.36919653809306</v>
+        <v>460.4357015328919</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>313.9011435597769</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>176.361962382226</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>739.5989987017068</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="S9" t="n">
-        <v>1627.262386835205</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="T9" t="n">
-        <v>1432.552065309181</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="U9" t="n">
-        <v>1204.450475442445</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="V9" t="n">
-        <v>969.2983672107021</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="W9" t="n">
-        <v>715.0610104825005</v>
+        <v>609.3701111941432</v>
       </c>
       <c r="X9" t="n">
-        <v>507.2095102769676</v>
+        <v>609.3701111941432</v>
       </c>
       <c r="Y9" t="n">
-        <v>299.4492115120137</v>
+        <v>609.3701111941432</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>29.24882464404145</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>27.03967056230184</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>42.9899398517073</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R10" t="n">
-        <v>411.1248508126813</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S10" t="n">
-        <v>211.9453651969077</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T10" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U10" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="V10" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="W10" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="X10" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.36919653809306</v>
+        <v>67.74542702829011</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
@@ -5066,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.605821609171</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>3121.906610713899</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>1632.511388127729</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5252,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1267.635416552713</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C14" t="n">
-        <v>1267.635416552713</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D14" t="n">
-        <v>909.3697179459625</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="E14" t="n">
-        <v>523.5814653477182</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810553</v>
@@ -5297,7 +5299,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5306,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V14" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X14" t="n">
         <v>1698.50962791956</v>
       </c>
       <c r="Y14" t="n">
-        <v>1654.235256616835</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="15">
@@ -5346,16 +5348,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
@@ -5388,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,7 +5399,7 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
         <v>1109.759191501177</v>
@@ -5410,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="C16" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="D16" t="n">
         <v>772.5608581015648</v>
@@ -5431,10 +5433,10 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K16" t="n">
         <v>176.6457242372933</v>
@@ -5443,43 +5445,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T16" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U16" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V16" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W16" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="X16" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="Y16" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1632.511388127729</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C17" t="n">
-        <v>1263.548871187317</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D17" t="n">
-        <v>905.2831725805665</v>
+        <v>764.3411331473096</v>
       </c>
       <c r="E17" t="n">
-        <v>519.4949199823222</v>
+        <v>378.5528805490654</v>
       </c>
       <c r="F17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
@@ -5537,28 +5539,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W17" t="n">
-        <v>2409.250560167662</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X17" t="n">
-        <v>2409.250560167662</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y17" t="n">
-        <v>2019.11122819185</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5598,7 +5600,7 @@
         <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>128.5011820977088</v>
+        <v>666.202517612298</v>
       </c>
       <c r="C19" t="n">
-        <v>128.5011820977088</v>
+        <v>497.2663346843912</v>
       </c>
       <c r="D19" t="n">
-        <v>128.5011820977088</v>
+        <v>347.1496952720554</v>
       </c>
       <c r="E19" t="n">
-        <v>128.5011820977088</v>
+        <v>199.2366016896623</v>
       </c>
       <c r="F19" t="n">
-        <v>128.5011820977088</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G19" t="n">
-        <v>128.5011820977088</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H19" t="n">
-        <v>128.5011820977088</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L19" t="n">
         <v>332.3555681596505</v>
@@ -5695,28 +5697,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R19" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S19" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T19" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U19" t="n">
-        <v>128.5011820977088</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V19" t="n">
-        <v>128.5011820977088</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W19" t="n">
-        <v>128.5011820977088</v>
+        <v>666.202517612298</v>
       </c>
       <c r="X19" t="n">
-        <v>128.5011820977088</v>
+        <v>666.202517612298</v>
       </c>
       <c r="Y19" t="n">
-        <v>128.5011820977088</v>
+        <v>666.202517612298</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C20" t="n">
-        <v>1976.204921733553</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G20" t="n">
         <v>406.0926155839475</v>
@@ -5747,7 +5749,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912092</v>
@@ -5762,40 +5764,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U20" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V20" t="n">
-        <v>2788.565186649822</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W20" t="n">
-        <v>2788.565186649822</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X20" t="n">
-        <v>2788.565186649822</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2695.175226737384</v>
+        <v>3143.957356778932</v>
       </c>
       <c r="C22" t="n">
-        <v>2695.175226737384</v>
+        <v>2975.021173851025</v>
       </c>
       <c r="D22" t="n">
-        <v>2695.175226737384</v>
+        <v>2824.904534438689</v>
       </c>
       <c r="E22" t="n">
-        <v>2695.175226737384</v>
+        <v>2676.991440856296</v>
       </c>
       <c r="F22" t="n">
-        <v>2548.285279239473</v>
+        <v>2530.101493358386</v>
       </c>
       <c r="G22" t="n">
-        <v>2548.285279239473</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H22" t="n">
-        <v>2548.285279239473</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I22" t="n">
         <v>2471.23093222317</v>
       </c>
       <c r="J22" t="n">
-        <v>2483.053685760609</v>
+        <v>2483.05368576061</v>
       </c>
       <c r="K22" t="n">
         <v>2581.36454002828</v>
       </c>
       <c r="L22" t="n">
-        <v>2737.074383950637</v>
+        <v>2737.074383950638</v>
       </c>
       <c r="M22" t="n">
         <v>2904.506865249835</v>
       </c>
       <c r="N22" t="n">
-        <v>3075.815702279682</v>
+        <v>3075.815702279683</v>
       </c>
       <c r="O22" t="n">
         <v>3213.734051497872</v>
       </c>
       <c r="P22" t="n">
-        <v>3312.68505425063</v>
+        <v>3312.685054250631</v>
       </c>
       <c r="Q22" t="n">
         <v>3325.605821609171</v>
@@ -5950,10 +5952,10 @@
         <v>3325.605821609171</v>
       </c>
       <c r="X22" t="n">
-        <v>3097.616270711153</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="Y22" t="n">
-        <v>2876.823691567623</v>
+        <v>3325.605821609171</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2345.167438673965</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C23" t="n">
-        <v>1976.204921733553</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D23" t="n">
-        <v>1617.939223126803</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E23" t="n">
-        <v>1232.150970528558</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6011,28 +6013,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V23" t="n">
-        <v>2755.806928794324</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W23" t="n">
-        <v>2755.806928794324</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X23" t="n">
-        <v>2755.806928794324</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y23" t="n">
-        <v>2731.767278738087</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6065,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2568.556609404824</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="C25" t="n">
-        <v>2568.556609404824</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D25" t="n">
-        <v>2568.556609404824</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E25" t="n">
-        <v>2568.556609404824</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F25" t="n">
-        <v>2568.556609404824</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G25" t="n">
-        <v>2568.556609404824</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H25" t="n">
-        <v>2568.556609404824</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K25" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L25" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N25" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O25" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P25" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R25" t="n">
-        <v>3235.775364366699</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S25" t="n">
-        <v>3044.089480193525</v>
+        <v>699.5244324517353</v>
       </c>
       <c r="T25" t="n">
-        <v>2822.322864763051</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="U25" t="n">
-        <v>2789.349188548355</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="V25" t="n">
-        <v>2789.349188548355</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="W25" t="n">
-        <v>2789.349188548355</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="X25" t="n">
-        <v>2789.349188548355</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="Y25" t="n">
-        <v>2568.556609404824</v>
+        <v>477.7578170212613</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>921.7704558796252</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C26" t="n">
-        <v>821.1650657389509</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D26" t="n">
-        <v>821.1650657389509</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="E26" t="n">
-        <v>821.1650657389509</v>
+        <v>736.8185791558158</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>325.8326743662082</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6251,25 +6253,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.975386180638</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.509627919559</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y26" t="n">
-        <v>1308.370295943747</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="27">
@@ -6406,28 +6408,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R28" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S28" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U28" t="n">
-        <v>128.5011820977088</v>
+        <v>723.6376486118401</v>
       </c>
       <c r="V28" t="n">
-        <v>66.5121164321834</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="W28" t="n">
-        <v>66.5121164321834</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="X28" t="n">
-        <v>66.5121164321834</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y28" t="n">
-        <v>66.5121164321834</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1559.116588708439</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C29" t="n">
-        <v>1190.154071768027</v>
+        <v>869.0763550278973</v>
       </c>
       <c r="D29" t="n">
-        <v>1190.154071768027</v>
+        <v>510.8106564211468</v>
       </c>
       <c r="E29" t="n">
-        <v>1190.154071768027</v>
+        <v>125.0224038229026</v>
       </c>
       <c r="F29" t="n">
-        <v>779.1681669784198</v>
+        <v>125.0224038229026</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>125.0224038229026</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
         <v>255.3912473912088</v>
@@ -6485,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3225.665050977836</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3019.687303362058</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>3019.687303362058</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V29" t="n">
-        <v>2688.624416018487</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W29" t="n">
-        <v>2335.855760748373</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X29" t="n">
-        <v>2335.855760748373</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y29" t="n">
-        <v>1945.716428772561</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6546,7 +6548,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6573,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6582,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="C31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="D31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="E31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="F31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="G31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962286</v>
+        <v>2483.053685760609</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372932</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L31" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950637</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279682</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.68505425063</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R31" t="n">
-        <v>831.0565485757129</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S31" t="n">
-        <v>639.3706644025392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T31" t="n">
-        <v>417.6040489720652</v>
+        <v>3103.839206178697</v>
       </c>
       <c r="U31" t="n">
-        <v>128.5011820977088</v>
+        <v>3015.332590466017</v>
       </c>
       <c r="V31" t="n">
-        <v>66.5121164321834</v>
+        <v>2760.648102260131</v>
       </c>
       <c r="W31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="X31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2345.167438673965</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="C32" t="n">
-        <v>1976.204921733553</v>
+        <v>1200.139242371467</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.939223126803</v>
+        <v>841.8735437647167</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6734,16 +6736,16 @@
         <v>3072.075344883006</v>
       </c>
       <c r="V32" t="n">
-        <v>2741.012457539436</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W32" t="n">
-        <v>2388.243802269321</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X32" t="n">
-        <v>2388.243802269321</v>
+        <v>2345.840931351812</v>
       </c>
       <c r="Y32" t="n">
-        <v>2388.243802269321</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="33">
@@ -6889,19 +6891,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="U34" t="n">
-        <v>3243.322141364034</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V34" t="n">
-        <v>2988.637653158147</v>
+        <v>3070.921333403283</v>
       </c>
       <c r="W34" t="n">
-        <v>2699.220483121187</v>
+        <v>3070.921333403283</v>
       </c>
       <c r="X34" t="n">
-        <v>2471.230932223169</v>
+        <v>2842.931782505266</v>
       </c>
       <c r="Y34" t="n">
-        <v>2471.230932223169</v>
+        <v>2652.879397053409</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2303.170539913434</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="C35" t="n">
-        <v>1934.208022973022</v>
+        <v>905.5765942093292</v>
       </c>
       <c r="D35" t="n">
-        <v>1575.942324366272</v>
+        <v>547.3108956025787</v>
       </c>
       <c r="E35" t="n">
-        <v>1190.154071768027</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F35" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U35" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V35" t="n">
-        <v>3119.628073993393</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W35" t="n">
-        <v>3119.628073993393</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X35" t="n">
-        <v>3079.909711953368</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y35" t="n">
-        <v>2689.770379977556</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="36">
@@ -7005,19 +7007,19 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L36" t="n">
         <v>765.1517452158131</v>
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>610.2639694321828</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="C37" t="n">
-        <v>610.2639694321828</v>
+        <v>462.8479560159217</v>
       </c>
       <c r="D37" t="n">
-        <v>610.2639694321828</v>
+        <v>312.7313166035859</v>
       </c>
       <c r="E37" t="n">
-        <v>527.322087337517</v>
+        <v>312.7313166035859</v>
       </c>
       <c r="F37" t="n">
-        <v>380.4321398396066</v>
+        <v>312.7313166035859</v>
       </c>
       <c r="G37" t="n">
-        <v>212.7293032143256</v>
+        <v>145.0284799783049</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K37" t="n">
         <v>176.6457242372933</v>
@@ -7102,43 +7104,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R37" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S37" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T37" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U37" t="n">
-        <v>831.0565485757129</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V37" t="n">
-        <v>831.0565485757129</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="W37" t="n">
-        <v>831.0565485757129</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="X37" t="n">
-        <v>831.0565485757129</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="Y37" t="n">
-        <v>610.2639694321828</v>
+        <v>631.7841389438286</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1865.035106955552</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C38" t="n">
-        <v>1496.07259001514</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D38" t="n">
-        <v>1137.80689140839</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E38" t="n">
-        <v>752.0186388101456</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="F38" t="n">
-        <v>341.032734020538</v>
+        <v>684.4181157012733</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218342</v>
+        <v>269.3456655462698</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7172,10 +7174,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7208,16 +7210,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>2994.5429342656</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W38" t="n">
-        <v>2641.774278995485</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X38" t="n">
-        <v>2641.774278995485</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y38" t="n">
-        <v>2251.634947019674</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="39">
@@ -7227,70 +7229,70 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
         <v>1317.519490266131</v>
@@ -7357,16 +7359,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.605821609171</v>
+        <v>3236.784902733887</v>
       </c>
       <c r="T40" t="n">
-        <v>3304.435457340373</v>
+        <v>3015.018287303413</v>
       </c>
       <c r="U40" t="n">
-        <v>3015.332590466017</v>
+        <v>2725.915420429056</v>
       </c>
       <c r="V40" t="n">
-        <v>2760.64810226013</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="W40" t="n">
         <v>2471.230932223169</v>
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1477.112184968822</v>
+        <v>1865.035106955552</v>
       </c>
       <c r="C41" t="n">
-        <v>1108.149668028411</v>
+        <v>1496.07259001514</v>
       </c>
       <c r="D41" t="n">
-        <v>749.8839694216604</v>
+        <v>1137.806891408389</v>
       </c>
       <c r="E41" t="n">
-        <v>364.0957168234162</v>
+        <v>752.0186388101451</v>
       </c>
       <c r="F41" t="n">
-        <v>364.0957168234162</v>
+        <v>341.0327340205376</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7433,28 +7435,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>2980.08577053995</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V41" t="n">
-        <v>2980.08577053995</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W41" t="n">
-        <v>2627.317115269836</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X41" t="n">
-        <v>2253.851357008756</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="Y41" t="n">
-        <v>1863.712025032944</v>
+        <v>2251.634947019673</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7487,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7549,28 +7551,28 @@
         <v>541.9536817013565</v>
       </c>
       <c r="D43" t="n">
-        <v>541.9536817013565</v>
+        <v>391.8370422890207</v>
       </c>
       <c r="E43" t="n">
-        <v>394.0405881189633</v>
+        <v>243.9239487066276</v>
       </c>
       <c r="F43" t="n">
-        <v>247.150640621053</v>
+        <v>97.03400120871723</v>
       </c>
       <c r="G43" t="n">
-        <v>79.44780399577195</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L43" t="n">
         <v>332.3555681596505</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1934.181533884357</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C44" t="n">
-        <v>1565.219016943946</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D44" t="n">
-        <v>1206.953318337195</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E44" t="n">
-        <v>821.1650657389509</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F44" t="n">
-        <v>821.1650657389509</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
         <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W44" t="n">
-        <v>2403.03827352421</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X44" t="n">
-        <v>2029.57251526313</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y44" t="n">
-        <v>2029.57251526313</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="45">
@@ -7716,16 +7718,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2619.144025805563</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="C46" t="n">
-        <v>2619.144025805563</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="D46" t="n">
-        <v>2619.144025805563</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="E46" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="F46" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="G46" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H46" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I46" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J46" t="n">
-        <v>2483.053685760609</v>
+        <v>2483.05368576061</v>
       </c>
       <c r="K46" t="n">
-        <v>2581.364540028279</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L46" t="n">
-        <v>2737.074383950637</v>
+        <v>2737.074383950638</v>
       </c>
       <c r="M46" t="n">
-        <v>2904.506865249834</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N46" t="n">
-        <v>3075.815702279682</v>
+        <v>3075.815702279683</v>
       </c>
       <c r="O46" t="n">
-        <v>3213.734051497871</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P46" t="n">
-        <v>3312.68505425063</v>
+        <v>3312.685054250631</v>
       </c>
       <c r="Q46" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="R46" t="n">
-        <v>3235.775364366698</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S46" t="n">
-        <v>3235.775364366698</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T46" t="n">
-        <v>3235.775364366698</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U46" t="n">
-        <v>3021.585069779333</v>
+        <v>3101.661527094958</v>
       </c>
       <c r="V46" t="n">
-        <v>3021.585069779333</v>
+        <v>3101.661527094958</v>
       </c>
       <c r="W46" t="n">
-        <v>3021.585069779333</v>
+        <v>3101.661527094958</v>
       </c>
       <c r="X46" t="n">
-        <v>3021.585069779333</v>
+        <v>2873.67197619694</v>
       </c>
       <c r="Y46" t="n">
-        <v>2800.792490635803</v>
+        <v>2652.87939705341</v>
       </c>
     </row>
   </sheetData>
@@ -22550,7 +22552,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>189.5105044445882</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22565,7 +22567,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,19 +22594,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
-        <v>70.68499503062274</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988714</v>
+        <v>25.91829388988657</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871069</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038153</v>
+        <v>140.2266713038147</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897334</v>
       </c>
     </row>
     <row r="3">
@@ -22623,19 +22625,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>50.1612046317094</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -22644,10 +22646,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409152</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265846</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846324</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>67.62804997333097</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459997</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715784</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098472</v>
+        <v>18.15710861098415</v>
       </c>
     </row>
     <row r="4">
@@ -22726,7 +22728,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>37.06597233494271</v>
+        <v>18.95836326784795</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22744,10 +22746,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515973</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -22784,25 +22786,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>325.5716717148877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>216.757832896167</v>
       </c>
       <c r="F5" t="n">
-        <v>219.3504585753915</v>
+        <v>219.3504585753913</v>
       </c>
       <c r="G5" t="n">
-        <v>225.5722460637381</v>
+        <v>225.5722460637379</v>
       </c>
       <c r="H5" t="n">
-        <v>129.3682389399024</v>
+        <v>129.3682389399021</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.08171901666378</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S5" t="n">
         <v>158.7758131900531</v>
@@ -22863,28 +22865,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>131.3957154437735</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,19 +22910,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>57.03060314331823</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>7.884010625681299</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U6" t="n">
-        <v>38.33818124377098</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>45.27499998310532</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22963,10 +22965,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>18.95836326784828</v>
+        <v>4.85405337381949</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R7" t="n">
         <v>132.8223696106904</v>
@@ -23021,22 +23023,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046874</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>194.4047829059416</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>225.5722460637379</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23066,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>211.4680405089103</v>
       </c>
       <c r="V8" t="n">
-        <v>270.8756317013437</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23087,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>85.72246781400163</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>112.3700680644938</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23191,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>18.95836326784796</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23218,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>54.47741176207617</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>168.0688818921495</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>320.8996812621415</v>
       </c>
     </row>
     <row r="12">
@@ -23495,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>209.4348714989682</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>342.406311066356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>1.772586778758495</v>
+        <v>90.70473944880575</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23741,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>97.95568926599833</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -23750,7 +23752,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>333.9024222471523</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23890,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>14.02380761802718</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23908,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>34.98324540096796</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23972,16 +23974,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>209.4348714989682</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>330.0080098234356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>107.7439527351652</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>20.06861686369774</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24263,16 +24265,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>362.4386851003786</v>
+        <v>183.1377306860513</v>
       </c>
     </row>
     <row r="24">
@@ -24376,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>59.55223036870404</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>253.5678987530631</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24443,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>265.6735555317401</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>154.1943732987689</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>90.93497457133151</v>
       </c>
       <c r="V28" t="n">
-        <v>190.7684683149579</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24683,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>236.6825798705085</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>10.24639886315464</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24743,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24883,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>198.5902886500598</v>
       </c>
       <c r="V31" t="n">
-        <v>190.7684683149579</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>340.0882417040779</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24923,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>25.24428266650733</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24974,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25129,19 +25131,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>204.7509947629281</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>30.43279175475644</v>
       </c>
     </row>
     <row r="35">
@@ -25160,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>316.8613043470239</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25202,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>330.4099222588442</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25312,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>64.32149937285008</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>67.02381500366054</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25366,7 +25368,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25397,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>139.1463142409823</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>93.80255076437493</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25448,13 +25450,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>101.8363156449108</v>
       </c>
       <c r="T40" t="n">
-        <v>198.59028865006</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25637,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>139.1463142409828</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>222.03605332817</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>135.8091423302597</v>
       </c>
       <c r="H43" t="n">
-        <v>131.9486842263681</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>288.2967700984958</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25874,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26029,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -26077,7 +26079,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>74.16344656412079</v>
+        <v>64.50698663654137</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26086,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>424931.0936061949</v>
+        <v>424931.0936061954</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>424931.0936061952</v>
+        <v>424931.0936061953</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>658545.8706526515</v>
+        <v>424931.0936061953</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903117</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>839054.4922903114</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>158307.6623238765</v>
+        <v>158307.6623238766</v>
       </c>
       <c r="C2" t="n">
-        <v>158307.6623238765</v>
+        <v>158307.6623238767</v>
       </c>
       <c r="D2" t="n">
-        <v>245340.6184784386</v>
+        <v>158307.6623238766</v>
       </c>
       <c r="E2" t="n">
-        <v>312588.9285003119</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="F2" t="n">
-        <v>312588.9285003119</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="G2" t="n">
         <v>312588.9285003117</v>
       </c>
       <c r="H2" t="n">
-        <v>312588.9285003119</v>
+        <v>312588.9285003118</v>
       </c>
       <c r="I2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003116</v>
       </c>
       <c r="J2" t="n">
         <v>312588.9285003116</v>
       </c>
       <c r="K2" t="n">
-        <v>312588.9285003116</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="L2" t="n">
-        <v>312588.9285003118</v>
+        <v>312588.9285003119</v>
       </c>
       <c r="M2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003119</v>
       </c>
       <c r="N2" t="n">
         <v>312588.9285003117</v>
       </c>
       <c r="O2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003116</v>
       </c>
       <c r="P2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003118</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208449</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>3.10570385408937e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>371558.524948766</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.74576691</v>
+        <v>627134.6436336674</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854447</v>
+        <v>49064.94472854468</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>89743.37813127029</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608622</v>
+        <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8001180723338</v>
+        <v>137.8001180723342</v>
       </c>
       <c r="C4" t="n">
-        <v>137.800118072334</v>
+        <v>137.8001180723342</v>
       </c>
       <c r="D4" t="n">
-        <v>384.3219252469136</v>
+        <v>137.8001180723342</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="K4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161354</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26482,19 +26484,19 @@
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139328</v>
@@ -26506,7 +26508,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
         <v>74306.3405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-490172.8407266543</v>
+        <v>-490172.8407266549</v>
       </c>
       <c r="C6" t="n">
-        <v>101184.0617941903</v>
+        <v>101184.0617941907</v>
       </c>
       <c r="D6" t="n">
-        <v>-211801.3102514466</v>
+        <v>101184.0617941907</v>
       </c>
       <c r="E6" t="n">
-        <v>-38332.80481699753</v>
+        <v>-389436.7026837551</v>
       </c>
       <c r="F6" t="n">
+        <v>237697.9409499122</v>
+      </c>
+      <c r="G6" t="n">
+        <v>237697.9409499122</v>
+      </c>
+      <c r="H6" t="n">
         <v>237697.9409499124</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
+        <v>237697.9409499122</v>
+      </c>
+      <c r="J6" t="n">
+        <v>188632.9962213675</v>
+      </c>
+      <c r="K6" t="n">
         <v>237697.9409499123</v>
       </c>
-      <c r="H6" t="n">
-        <v>237697.9409499125</v>
-      </c>
-      <c r="I6" t="n">
-        <v>237697.9409499123</v>
-      </c>
-      <c r="J6" t="n">
-        <v>188632.9962213677</v>
-      </c>
-      <c r="K6" t="n">
-        <v>237697.9409499122</v>
-      </c>
       <c r="L6" t="n">
-        <v>147954.5628186421</v>
+        <v>237697.9409499124</v>
       </c>
       <c r="M6" t="n">
-        <v>165606.5883338261</v>
+        <v>77241.49908203506</v>
       </c>
       <c r="N6" t="n">
         <v>237697.9409499123</v>
       </c>
       <c r="O6" t="n">
-        <v>237697.9409499123</v>
+        <v>237697.9409499121</v>
       </c>
       <c r="P6" t="n">
-        <v>237697.9409499123</v>
+        <v>237697.9409499124</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>305.2407236247795</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556142</v>
+        <v>541.3067596803935</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>354.5893695598432</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761296</v>
+        <v>643.8758682359725</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663194</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598432</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761297</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598432</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761296</v>
+        <v>643.8758682359725</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528637</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622677</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590848</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292671</v>
+        <v>280.687253629268</v>
       </c>
       <c r="P3" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550071</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820366</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276989</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647907</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,46 +31281,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O5" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,13 +31357,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H6" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J6" t="n">
         <v>111.4584056340083</v>
@@ -31370,34 +31372,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q6" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550075</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S6" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K7" t="n">
         <v>114.9089482765069</v>
@@ -31458,25 +31460,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P7" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R7" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S7" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31999,7 +32001,7 @@
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
         <v>691.3565293623194</v>
@@ -32239,7 +32241,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623193</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
         <v>769.2673490574995</v>
@@ -32315,7 +32317,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138796</v>
@@ -33044,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33272,7 +33274,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33679,7 +33681,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563564</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
         <v>99.83230779806951</v>
@@ -33737,10 +33739,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33892,7 +33894,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953983</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
         <v>557.281137600381</v>
@@ -33992,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34229,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34369,7 +34371,7 @@
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003805</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
         <v>691.3565293623194</v>
@@ -34457,13 +34459,13 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867938</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973018</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915967</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065958</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606289</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996319</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848235</v>
       </c>
       <c r="P3" t="n">
-        <v>91.3018594485568</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646066</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061144</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520815</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400438</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L5" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P5" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L6" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35647,7 +35649,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923322</v>
@@ -35887,7 +35889,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923321</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35963,7 +35965,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340054</v>
@@ -36692,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36920,7 +36922,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -37327,7 +37329,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,10 +37387,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.787000968712</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37640,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865553999</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38105,13 +38107,13 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
